--- a/DIAGRAMAS/HISTORIA DE USUARIOS/Historia-de-usuario-gogym22.xlsx
+++ b/DIAGRAMAS/HISTORIA DE USUARIOS/Historia-de-usuario-gogym22.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\DIAGRAMAS\HISTORIA DE USUARIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957E73D5-EB03-4116-BD81-A32FF696D9CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
     <sheet name="Burndown" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -112,9 +121,6 @@
     <t>HU2</t>
   </si>
   <si>
-    <t>Se debe almacenar la informacion de los aprendices y de los dias asistidos en una base de datos</t>
-  </si>
-  <si>
     <t>HU3</t>
   </si>
   <si>
@@ -130,12 +136,6 @@
     <t>HU7</t>
   </si>
   <si>
-    <t>Se deben poder borrar los datos de algun aprendiz de la base de datos.</t>
-  </si>
-  <si>
-    <t>Dado que quiero poder administrar la base de datos, el sistema debe tener un boton para eliminar informacion de los aprendices.</t>
-  </si>
-  <si>
     <t>HU8</t>
   </si>
   <si>
@@ -218,12 +218,6 @@
   </si>
   <si>
     <t>1. la interfaz sera de colores agradables para la vista. 2. sera de facil acceso. 3. contara con un manual de funcionamiento 4: y botones desplegables</t>
-  </si>
-  <si>
-    <t>1. el cliente contara con un perfil donde se implementara el boton de borrar usuario. 2. el boton puede borrar informacion basica del usuario que se halla registrado.</t>
-  </si>
-  <si>
-    <t>1. se debe crear los campos para diligenciar la informacion de los usuarios 2. se debe diseñar una interfaz para que muestre los campos. 3. se debe contar con una tabla en la base de datos que almacene la informacion. 4. se debe poder guardar la informacion con un boton.</t>
   </si>
   <si>
     <t xml:space="preserve"> L</t>
@@ -276,30 +270,11 @@
 PARA Asi poner fotos del gimnasio en la aplicación</t>
   </si>
   <si>
-    <t>1. configurar el lector           2.crear una tabla en la  base de datos                          3.diseño de interfaz                4.mensaje de  éxito o fallo en el registro</t>
-  </si>
-  <si>
-    <t>1. desarrollar tablas en la base de datos. 2. llenar de informacion las tablas. 3. conectar la base de datos al sitio web</t>
-  </si>
-  <si>
     <t>COMO Usuario del gimnasio
 QUIERO un campo donde pueda añadir informacion
 PARA Poder especificar  si sufro de una  lesion o  alguna enfermedad</t>
   </si>
   <si>
-    <t>COMO Administrador 
-QUIERO Tener  una base de datos
-PARA Almacenar los datos de los  usuario del gimnasio</t>
-  </si>
-  <si>
-    <t>Dado que quiero poder guardar la informacion de los aprendices de manera virtual, esta debe quedar almacenada en una base de datos.esperando  diagrama MER</t>
-  </si>
-  <si>
-    <t>COMO administrador
-QUIERO Tener un boton
-PARA Poder borrar los datos de algun aprendiz</t>
-  </si>
-  <si>
     <t>COMO Usuario del gimnasio
 QUIERO Que la aplicación se adapte a cualquier pantalla
 PARA Que sea agradable para la vista</t>
@@ -337,34 +312,17 @@
     <t>1,diseñar el formulario            2. crear la tabla en la base de datos.                                              3. crear una pestaña nueva para implementar el formulario.</t>
   </si>
   <si>
-    <t xml:space="preserve">COMO Encargado del gimnasio
-QUIERO Que se pueda usar el lector o un formulario 
-PARA Tomar la asistencia con el carnet del aprendiz </t>
-  </si>
-  <si>
     <t>COMO Usuario del gimnasio
 QUIERO Que el sitio web tenga un diseño amigable
 PARA Que sea agradabe utilizarla</t>
   </si>
   <si>
-    <t>Se debe poder tomar la asistencia por medio del lector de barras  y el carnet del aprendiz o con   diligenciar el documento.</t>
-  </si>
-  <si>
-    <t>El lector debe leer el codigo del carnet si el lector falla  esta la opcion de un diligenciar  el documento, el sistema debe mandar un mensaje  del éxito o del fallo   del registro.</t>
-  </si>
-  <si>
     <t>Dado que quiero poder registrar aprendices, el sistema debe tener un panel que me permita hacerlo cuando ellos no puedan hacerlo o desconozca del sitio. El panel pedira nombre, genero, corre, ficha, programa de formacion,  telefono centro al que pertenece. el sistema cuenta con el noton registrarse y sistema de alerta si fue exitoso o  si fallo el registro.</t>
   </si>
   <si>
     <t>Ingresar al sistema por medio de un usuario y una contraseña</t>
   </si>
   <si>
-    <t>El actor ingresa su correo y su contraseña y le da en el boton ingresar, el sistema buscara en la bas de dato, una vez verificadas las credenciales el sistema abre la pantalla principal de acuerdo al roldel actor, si es el administrador tiene acceso a modificar el carusel,   ingresar a la base de datos , y asistencia. si es encargado solo a asistencia .</t>
-  </si>
-  <si>
-    <t>1.ingresa su correo y su contraseña y le da en el boton ingresar                        2.el sistema buscara en la bas de dato, una vez verificadas las credenciales el sistema abre la pantalla principal de acuerdo al roldel actor, si es el administrador tiene acceso a modificar el carusel,   ingresar a la base de datos , y asistencia. si es encargado solo a asistencia .</t>
-  </si>
-  <si>
     <t>Crear, modificar, eliminar y listar usuarios del sistema</t>
   </si>
   <si>
@@ -386,16 +344,67 @@
     <t>COMO Administrador Quiero un pefil  PARA administrar la pagina</t>
   </si>
   <si>
-    <t>HU16+A17:I17</t>
-  </si>
-  <si>
     <t>1.diseñar interface                     2.crear acceso a  gestionar  usuarios.                                   3.crear acceso a  eventos       4.crear acceso a carrusel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMO Encargado del gimnasio
+QUIERO Que se pueda usar el lector 
+PARA Tomar la asistencia con el carnet del aprendiz </t>
+  </si>
+  <si>
+    <t>Se debe poder tomar la asistencia por medio del lector de barras  y el carnet del aprendiz.</t>
+  </si>
+  <si>
+    <t>COMO Usuario del gimnasio
+QUIERO Poder tomar asistencia por medio de un formulario
+PARA Cuando no sea posible hacerlo por medio del lector</t>
+  </si>
+  <si>
+    <t>Se debe poder tomar asistencia por medio de un formulario que este implementado en el sitio web</t>
+  </si>
+  <si>
+    <t>HU16</t>
+  </si>
+  <si>
+    <t>Dado que quiero poder iniciar sesion, el sistema debe tener una alternativa para tomar la asistencia en situaciones en las que no se pueda usar el lector de codigo de barras.</t>
+  </si>
+  <si>
+    <t>El lector debe leer el codigo del carnet , el sistema debe mandar un mensaje  del éxito o fallo del registro.</t>
+  </si>
+  <si>
+    <t>COMO Administrador 
+QUIERO Tener una tabla de usuarios
+PARA Almacenar los datos de los  usuario del gimnasio</t>
+  </si>
+  <si>
+    <t>Se debe almacenar la informacion de los aprendices y de los dias asistidos en una tabla dedicada a los usuarios</t>
+  </si>
+  <si>
+    <t>Dado que quiero poder guardar la informacion de los aprendices de manera virtual, esta debe quedar almacenada en una tabla de usuarios.</t>
+  </si>
+  <si>
+    <t>1. crear el formulario           2.crear una tabla                          3. permitir que se pueda tomar asistencia con el numero de identifacion(TI, CC)                4.mensaje de  éxito o fallo en el registro</t>
+  </si>
+  <si>
+    <t>1. desarrollar tablas de usuarios   2. llenar de informacion las tablas. 3. conectar la tabla de usuarios al sitio web</t>
+  </si>
+  <si>
+    <t>El actor ingresa su correo y su contraseña y le da en el boton ingresar, el sistema consultara en la tabla administrador/encargado, una vez verificadas las credenciales el sistema abre la pantalla principal de acuerdo al rol del actor, si es el administrador tiene acceso a modificar el carusel,   ingresar a la base de datos , y asistencia. si es encargado solo a asistencia .</t>
+  </si>
+  <si>
+    <t>1.ingresa su correo y su contraseña y le da en el boton ingresar                        2.el sistema buscara en la tabla, una vez verificadas las credenciales el sistema abre la pantalla principal de acuerdo al rol del actor, si es el administrador tiene acceso a modificar el carusel,   ingresar a la base de datos , y asistencia. si es encargado solo a asistencia .</t>
+  </si>
+  <si>
+    <t>1. se debe crear los campos para diligenciar la informacion de los usuarios 2. se debe diseñar una interfaz para que muestre los campos. 3. se debe contar con una tabla usuarios que almacene la informacion. 4. se debe poder guardar la informacion con un boton.</t>
+  </si>
+  <si>
+    <t>1. configurar el lector           2.crear una tabla asistencia                         3.diseño de interfaz                4.mensaje de  éxito o fallo en el registro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="12"/>
@@ -560,7 +569,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -616,6 +625,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -640,7 +650,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -712,7 +722,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4406-4353-9F87-8A63F63AF711}"/>
             </c:ext>
@@ -771,7 +781,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4406-4353-9F87-8A63F63AF711}"/>
             </c:ext>
@@ -860,7 +870,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1202,11 +1212,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1247,7 +1257,7 @@
         <v>28</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1" ht="94.5">
@@ -1255,16 +1265,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F2" s="6">
         <v>6</v>
@@ -1276,7 +1286,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" ht="78.75">
@@ -1284,16 +1294,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F3" s="16">
         <v>6</v>
@@ -1305,24 +1315,24 @@
         <v>5</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" ht="220.5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="205.5" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F4" s="16">
         <v>2</v>
@@ -1334,24 +1344,24 @@
         <v>3</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="173.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="186.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F5" s="16">
         <v>3</v>
@@ -1363,53 +1373,53 @@
         <v>3</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="110.25">
-      <c r="A6" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="9" customFormat="1" ht="129" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="12">
+        <v>2</v>
+      </c>
+      <c r="G6" s="12">
+        <v>24</v>
+      </c>
+      <c r="H6" s="13">
+        <v>2</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="9" customFormat="1" ht="104.25" customHeight="1">
+      <c r="A7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="B7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="16">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16">
-        <v>12</v>
-      </c>
-      <c r="H6" s="17">
-        <v>3</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" ht="94.5">
-      <c r="A7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="D7" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F7" s="12">
         <v>4</v>
@@ -1421,24 +1431,24 @@
         <v>3</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="94.5">
       <c r="A8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F8" s="12">
         <v>1</v>
@@ -1450,24 +1460,24 @@
         <v>4</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="5" customFormat="1" ht="78.75">
       <c r="A9" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -1479,24 +1489,24 @@
         <v>2</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" ht="183" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="9" customFormat="1" ht="165" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="E10" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F10" s="12">
         <v>2</v>
@@ -1508,24 +1518,24 @@
         <v>2</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="5" customFormat="1" ht="99.75" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F11" s="16">
         <v>2</v>
@@ -1537,24 +1547,24 @@
         <v>2</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="77.25" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F12" s="12">
         <v>2</v>
@@ -1566,24 +1576,24 @@
         <v>3</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="5" customFormat="1" ht="138.75" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F13" s="16">
         <v>2</v>
@@ -1595,24 +1605,24 @@
         <v>1</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="5" customFormat="1" ht="285" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F14" s="16">
         <v>6</v>
@@ -1624,24 +1634,24 @@
         <v>5</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="138.75" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F15" s="12">
         <v>1</v>
@@ -1653,24 +1663,24 @@
         <v>4</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="22" customFormat="1" ht="138.75" customHeight="1">
       <c r="A16" s="24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F16" s="26">
         <v>1</v>
@@ -1682,24 +1692,24 @@
         <v>2</v>
       </c>
       <c r="I16" s="25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="21" customFormat="1" ht="138.75" customHeight="1">
+      <c r="A17" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="21" customFormat="1" ht="138.75" customHeight="1">
-      <c r="A17" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>113</v>
-      </c>
       <c r="C17" s="11" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F17" s="12">
         <v>2</v>
@@ -1711,8 +1721,11 @@
         <v>4</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>115</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1721,7 +1734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView topLeftCell="E7" workbookViewId="0">
@@ -1906,7 +1919,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
